--- a/List of Papers.xlsx
+++ b/List of Papers.xlsx
@@ -762,8 +762,8 @@
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD9"/>
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="53.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/List of Papers.xlsx
+++ b/List of Papers.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://antarosmedical-my.sharepoint.com/personal/mauro_pappaterra_antarosmedical_com/Documents/P/AI4RAILS22/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MauroPappaterra\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="166" documentId="11_AD4D1D646341095ACB7000A3E557DD62693EDF1E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEAAE0DE-7EF7-46EE-8CDE-620BD2FDC22B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445C84EF-7A20-4FB7-8055-2730C50C0DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -494,6 +494,232 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>209177</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>993588</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19B8F07D-3EEF-4D3A-80E1-A8474DE9ACD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11878236" y="537883"/>
+          <a:ext cx="2637117" cy="1284941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="1" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Railway</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Maintenance</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="1" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Applications</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>A = Railway Tracks Maintenance</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-GB" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B = Rolling Stock Maintenance</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-GB" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>C = Infrastructure Maintenance</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-GB" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>D = Monitoring</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-GB" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>E = Maintenance Planning</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-SE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -762,8 +988,8 @@
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="53.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1805,5 +2031,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>